--- a/delete1/openData.xlsx
+++ b/delete1/openData.xlsx
@@ -213,10 +213,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>严颜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>孟获</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -415,6 +411,9 @@
   <si>
     <t>董卓</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘禅</t>
   </si>
 </sst>
 </file>
@@ -763,7 +762,7 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1463,7 +1462,7 @@
         <v>40206</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -1472,7 +1471,7 @@
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="F31">
         <v>4</v>
@@ -1486,7 +1485,7 @@
         <v>40207</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -1495,7 +1494,7 @@
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F32">
         <v>4</v>
@@ -1509,7 +1508,7 @@
         <v>40208</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -1518,7 +1517,7 @@
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F33">
         <v>4</v>
@@ -1532,7 +1531,7 @@
         <v>50201</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -1541,7 +1540,7 @@
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F34">
         <v>5</v>
@@ -1555,7 +1554,7 @@
         <v>50202</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -1564,7 +1563,7 @@
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F35">
         <v>5</v>
@@ -1578,7 +1577,7 @@
         <v>50203</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -1587,7 +1586,7 @@
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F36">
         <v>5</v>
@@ -1601,7 +1600,7 @@
         <v>50204</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -1610,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F37">
         <v>5</v>
@@ -1624,7 +1623,7 @@
         <v>50205</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -1633,7 +1632,7 @@
         <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F38">
         <v>5</v>
@@ -1647,7 +1646,7 @@
         <v>50206</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -1656,7 +1655,7 @@
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F39">
         <v>5</v>
@@ -1670,7 +1669,7 @@
         <v>50207</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -1679,7 +1678,7 @@
         <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F40">
         <v>5</v>
@@ -1693,7 +1692,7 @@
         <v>50208</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -1702,7 +1701,7 @@
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F41">
         <v>5</v>
@@ -1716,7 +1715,7 @@
         <v>30301</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -1725,7 +1724,7 @@
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F42">
         <v>3</v>
@@ -1739,7 +1738,7 @@
         <v>30302</v>
       </c>
       <c r="B43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -1748,7 +1747,7 @@
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F43">
         <v>3</v>
@@ -1762,7 +1761,7 @@
         <v>30303</v>
       </c>
       <c r="B44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -1771,7 +1770,7 @@
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F44">
         <v>3</v>
@@ -1785,7 +1784,7 @@
         <v>30304</v>
       </c>
       <c r="B45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -1794,7 +1793,7 @@
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F45">
         <v>3</v>
@@ -1808,7 +1807,7 @@
         <v>40301</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C46">
         <v>45</v>
@@ -1817,7 +1816,7 @@
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F46">
         <v>4</v>
@@ -1831,7 +1830,7 @@
         <v>40302</v>
       </c>
       <c r="B47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -1840,7 +1839,7 @@
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F47">
         <v>4</v>
@@ -1854,7 +1853,7 @@
         <v>40303</v>
       </c>
       <c r="B48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -1863,7 +1862,7 @@
         <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F48">
         <v>4</v>
@@ -1877,7 +1876,7 @@
         <v>40304</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -1886,7 +1885,7 @@
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F49">
         <v>4</v>
@@ -1900,7 +1899,7 @@
         <v>40305</v>
       </c>
       <c r="B50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -1909,7 +1908,7 @@
         <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F50">
         <v>4</v>
@@ -1923,7 +1922,7 @@
         <v>40306</v>
       </c>
       <c r="B51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -1932,7 +1931,7 @@
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F51">
         <v>4</v>
@@ -1946,7 +1945,7 @@
         <v>40307</v>
       </c>
       <c r="B52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C52">
         <v>51</v>
@@ -1955,7 +1954,7 @@
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F52">
         <v>4</v>
@@ -1969,7 +1968,7 @@
         <v>40308</v>
       </c>
       <c r="B53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C53">
         <v>52</v>
@@ -1978,7 +1977,7 @@
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F53">
         <v>4</v>
@@ -1992,7 +1991,7 @@
         <v>50301</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C54">
         <v>53</v>
@@ -2001,7 +2000,7 @@
         <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F54">
         <v>5</v>
@@ -2015,7 +2014,7 @@
         <v>50302</v>
       </c>
       <c r="B55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C55">
         <v>54</v>
@@ -2024,7 +2023,7 @@
         <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F55">
         <v>5</v>
@@ -2038,7 +2037,7 @@
         <v>50303</v>
       </c>
       <c r="B56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -2047,7 +2046,7 @@
         <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F56">
         <v>5</v>
@@ -2061,7 +2060,7 @@
         <v>50304</v>
       </c>
       <c r="B57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C57">
         <v>56</v>
@@ -2070,7 +2069,7 @@
         <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F57">
         <v>5</v>
@@ -2084,7 +2083,7 @@
         <v>50305</v>
       </c>
       <c r="B58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C58">
         <v>57</v>
@@ -2093,7 +2092,7 @@
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F58">
         <v>5</v>
@@ -2107,7 +2106,7 @@
         <v>50306</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C59">
         <v>58</v>
@@ -2116,7 +2115,7 @@
         <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F59">
         <v>5</v>
@@ -2130,7 +2129,7 @@
         <v>50307</v>
       </c>
       <c r="B60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C60">
         <v>59</v>
@@ -2139,7 +2138,7 @@
         <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F60">
         <v>5</v>
@@ -2153,7 +2152,7 @@
         <v>50308</v>
       </c>
       <c r="B61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -2162,7 +2161,7 @@
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F61">
         <v>5</v>
@@ -2176,7 +2175,7 @@
         <v>30401</v>
       </c>
       <c r="B62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -2185,7 +2184,7 @@
         <v>4</v>
       </c>
       <c r="E62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F62">
         <v>3</v>
@@ -2199,7 +2198,7 @@
         <v>30402</v>
       </c>
       <c r="B63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -2208,7 +2207,7 @@
         <v>4</v>
       </c>
       <c r="E63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F63">
         <v>3</v>
@@ -2222,7 +2221,7 @@
         <v>30403</v>
       </c>
       <c r="B64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -2231,7 +2230,7 @@
         <v>4</v>
       </c>
       <c r="E64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F64">
         <v>3</v>
@@ -2245,7 +2244,7 @@
         <v>30404</v>
       </c>
       <c r="B65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -2254,7 +2253,7 @@
         <v>4</v>
       </c>
       <c r="E65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F65">
         <v>3</v>
@@ -2268,7 +2267,7 @@
         <v>40401</v>
       </c>
       <c r="B66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C66">
         <v>65</v>
@@ -2277,7 +2276,7 @@
         <v>4</v>
       </c>
       <c r="E66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F66">
         <v>4</v>
@@ -2291,7 +2290,7 @@
         <v>40402</v>
       </c>
       <c r="B67" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67">
         <v>66</v>
@@ -2300,7 +2299,7 @@
         <v>4</v>
       </c>
       <c r="E67" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F67">
         <v>4</v>
@@ -2314,7 +2313,7 @@
         <v>40403</v>
       </c>
       <c r="B68" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C68">
         <v>67</v>
@@ -2323,7 +2322,7 @@
         <v>4</v>
       </c>
       <c r="E68" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F68">
         <v>4</v>
@@ -2337,7 +2336,7 @@
         <v>40404</v>
       </c>
       <c r="B69" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -2346,7 +2345,7 @@
         <v>4</v>
       </c>
       <c r="E69" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F69">
         <v>4</v>
@@ -2360,7 +2359,7 @@
         <v>40405</v>
       </c>
       <c r="B70" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C70">
         <v>69</v>
@@ -2369,7 +2368,7 @@
         <v>4</v>
       </c>
       <c r="E70" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F70">
         <v>4</v>
@@ -2383,7 +2382,7 @@
         <v>40406</v>
       </c>
       <c r="B71" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C71">
         <v>70</v>
@@ -2392,7 +2391,7 @@
         <v>4</v>
       </c>
       <c r="E71" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F71">
         <v>4</v>
@@ -2406,7 +2405,7 @@
         <v>40407</v>
       </c>
       <c r="B72" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C72">
         <v>71</v>
@@ -2415,7 +2414,7 @@
         <v>4</v>
       </c>
       <c r="E72" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F72">
         <v>4</v>
@@ -2429,7 +2428,7 @@
         <v>40408</v>
       </c>
       <c r="B73" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -2438,7 +2437,7 @@
         <v>4</v>
       </c>
       <c r="E73" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F73">
         <v>4</v>
@@ -2452,7 +2451,7 @@
         <v>50401</v>
       </c>
       <c r="B74" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C74">
         <v>73</v>
@@ -2461,7 +2460,7 @@
         <v>4</v>
       </c>
       <c r="E74" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F74">
         <v>5</v>
@@ -2475,7 +2474,7 @@
         <v>50402</v>
       </c>
       <c r="B75" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C75">
         <v>74</v>
@@ -2484,7 +2483,7 @@
         <v>4</v>
       </c>
       <c r="E75" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F75">
         <v>5</v>
@@ -2498,7 +2497,7 @@
         <v>50403</v>
       </c>
       <c r="B76" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C76">
         <v>75</v>
@@ -2507,7 +2506,7 @@
         <v>4</v>
       </c>
       <c r="E76" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F76">
         <v>5</v>
@@ -2521,7 +2520,7 @@
         <v>50404</v>
       </c>
       <c r="B77" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C77">
         <v>76</v>
@@ -2530,7 +2529,7 @@
         <v>4</v>
       </c>
       <c r="E77" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F77">
         <v>5</v>
@@ -2544,7 +2543,7 @@
         <v>50405</v>
       </c>
       <c r="B78" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C78">
         <v>77</v>
@@ -2553,7 +2552,7 @@
         <v>4</v>
       </c>
       <c r="E78" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F78">
         <v>5</v>
@@ -2567,7 +2566,7 @@
         <v>50406</v>
       </c>
       <c r="B79" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C79">
         <v>78</v>
@@ -2576,7 +2575,7 @@
         <v>4</v>
       </c>
       <c r="E79" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F79">
         <v>5</v>
@@ -2590,7 +2589,7 @@
         <v>50407</v>
       </c>
       <c r="B80" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C80">
         <v>79</v>
@@ -2599,7 +2598,7 @@
         <v>4</v>
       </c>
       <c r="E80" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F80">
         <v>5</v>
@@ -2613,7 +2612,7 @@
         <v>50408</v>
       </c>
       <c r="B81" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C81">
         <v>80</v>
@@ -2622,7 +2621,7 @@
         <v>4</v>
       </c>
       <c r="E81" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F81">
         <v>5</v>

--- a/delete1/openData.xlsx
+++ b/delete1/openData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
   <si>
     <t>id</t>
   </si>
@@ -38,142 +38,82 @@
   </si>
   <si>
     <t>王异</t>
-  </si>
-  <si>
-    <t>王异</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>曹洪</t>
-  </si>
-  <si>
-    <t>曹洪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>乐进</t>
-  </si>
-  <si>
-    <t>乐进</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>于禁</t>
-  </si>
-  <si>
-    <t>于禁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>曹仁</t>
-  </si>
-  <si>
-    <t>曹仁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>张春华</t>
-  </si>
-  <si>
-    <t>张春华</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>曹丕</t>
-  </si>
-  <si>
-    <t>曹丕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>徐晃</t>
-  </si>
-  <si>
-    <t>徐晃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>典韦</t>
-  </si>
-  <si>
-    <t>典韦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>张郃</t>
-  </si>
-  <si>
-    <t>张郃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>夏侯渊</t>
-  </si>
-  <si>
-    <t>夏侯渊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>程昱</t>
-  </si>
-  <si>
-    <t>程昱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>郭嘉</t>
-  </si>
-  <si>
-    <t>郭嘉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>司马懿</t>
-  </si>
-  <si>
-    <t>司马懿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>甄姬</t>
-  </si>
-  <si>
-    <t>甄姬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>张辽</t>
-  </si>
-  <si>
-    <t>张辽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>曹操</t>
-  </si>
-  <si>
-    <t>曹操</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>许褚</t>
-  </si>
-  <si>
-    <t>许褚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>夏侯惇</t>
-  </si>
-  <si>
-    <t>夏侯惇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>荀彧</t>
-  </si>
-  <si>
-    <t>荀彧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -414,6 +354,323 @@
   </si>
   <si>
     <t>刘禅</t>
+  </si>
+  <si>
+    <t>益州刺史赵昂之妻，赵英、赵月之母。马超作乱凉州时，王异协助丈夫守城，多有功勋，自马超攻冀城至祁山坚守，赵昂曾出奇计九条，王异皆有参与。</t>
+  </si>
+  <si>
+    <t>字子廉，沛国谯（今安徽亳县）人，曹操从弟，曾献马并救护曹操。后多随军征伐，平兖州、征刘表、讨祝臂。曹丕即位时封曹洪为骠骑将军。曹叡即位，拜曹洪为后将军，更封乐城侯，后复拜为骠骑将军。曹洪逝世，追谥曰恭侯。</t>
+  </si>
+  <si>
+    <t>字文谦，魏“五子良将”之一。容貌短小，以胆烈跟从曹操，南征北讨，战功无数。从击袁绍于官渡，奋勇力战，斩袁绍部将淳于琼。又从击袁绍子谭、尚于黎阳，斩其大将严敬。从平荆州，留屯襄阳，进击关羽、苏非等人，击退其众，南郡诸郡的山谷蛮夷都前往乐进处投降。后来从曹操征孙权，假进节。曹操回师后，留乐进与张辽、李典屯于合肥。又以乐进数有军功，迁右将军。建安二十三年逝世，谥曰威侯。</t>
+  </si>
+  <si>
+    <t>字文则，泰山钜平人。三国时期曹魏武将。本为鲍信部将，后属曹操，曹操称赞他可与古代名将相比。然而在建安二十四年的襄樊之战中，于禁在败给关羽后投降，致使一代名将晚节不保。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字子孝，沛国谯人，曹操的从弟。三国时期曹魏名将，官至大司马。谥曰忠侯。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西晋宣穆皇后张春华（189－247），河内平皋（今河南温县）人。她是晋宣帝司马懿之妻，晋景帝司马师、晋文帝司马昭的母亲。后被追尊为皇后。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏的开国皇帝，公元220－226年在位。沛国谯人，魏武帝曹操与武宣卞皇后的长子。去世后庙号高祖，谥为文皇帝，葬于首阳陵。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字公明，河东杨人。三国时期曹魏名将，本为杨奉帐下骑都尉，杨奉被曹操击败后转投曹操，在曹操手下多立功勋，参与官渡、赤壁、关中征伐、汉中征伐等几次重大战役。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>典韦，汉族，陈留己吾（今河南商丘市宁陵县己吾城村）人。东汉末年曹魏猛将。擅使大双戟，为人壮猛任侠，曾为乡人刘氏报仇，杀人出市，人莫敢近。相貌魁梧，膂力过人。建安二年（197），张绣背叛曹操，典韦为保护曹操而独挡叛军，击杀多人，但最终因寡不敌众而战死。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字儁乂，河间鄚人。三国时期魏国名将。官渡之战时，本为袁绍部将的张郃投降了曹操，并在曹操帐下多立功勋，于曹魏建立后加封为征西车骑将军。诸葛亮六出祁山之间，张郃多次抵御蜀军的进攻，于公元231年在木门道被诸葛亮设伏射死。后谥曰壮侯。为曹魏“五子良将”之一。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字妙才，沛国谯人。东汉末年曹操部下名将，夏侯惇之族弟，八虎骑之一。群雄征讨董卓时随曹操一同起兵，后征战四方，屡立功勋。在平定马超叛乱后负责西北防线的镇守。公元219年刘备攻打汉中，被刘备部将黄忠所杀。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字仲德，本名程立，因梦中於泰山捧日，更名程昱。荀彧投曹操时向其举荐程昱。他参与了攻打吕布、袁绍、刘备、孙权的大部份战事，一直出谋献策，表现出众。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字奉孝，颍川阳翟人，官至军师祭酒。惜天妒英才，英年早逝。有诗云：“良计环环不遗策，每临制变满座惊”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晋宣帝，字仲达，河内温人。曾任职过曹魏的大都督，太尉，太傅。少有奇节，聪明多大略，博学洽闻，伏膺儒教，世之鬼才也。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山无极人，别称甄洛或甄宓，庙号文昭甄皇后。魏文帝曹丕的正室。懂诗文，有倾国倾城之貌，《洛神赋》即是曹植为她所作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字文远，魏雁门马邑人。官至前将军、征东将军、晋阳侯。武功高强，又谋略过人，多次建立奇功，以800人突袭孙权十万大军，皆望风披靡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏武帝曹操，字孟德，小名阿瞒、吉利，沛国谯人。精兵法，善诗歌，乃治世之能臣，乱世之奸雄也。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字仲康，谯国谯县人。和典韦一同统率着曹操的亲卫队“虎卫军”。因为他十分勇猛，所以有“虎痴”的绰号。曾有裸衣斗马超之举。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字元让，沛国谯人。有拔矢啖睛之勇，性格勇猛刚烈。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荀彧，字文若，颍川颍阴（今河南许昌）人。东汉末年曹操帐下首席谋臣，杰出的战略家。自小被世人称作“王佐之才”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关平是关羽在战乱中所收之义子。关羽脱离曹军后，与刘备于关定家中重逢，关定欲使年仅十八岁的关平随关羽同行，刘备便主张让关羽与关平结为义父子。自此后关平随侍在关羽身边，一生东征西讨。他武勇过人，不逊乃父，曾跟随刘备出征西川，立下战功，后来又与曹魏猛将庞德大战三十回合，不分胜负。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘备义子。性格刚猛，气力过人。随赵云、张飞等扫荡西川，颇有战功，而后又统领孟达攻取上庸，深为刘备信任。但是后来关羽北伐曹魏，多次要求刘封起兵相助，刘封不从。而后又侵凌孟达，迫其降魏。孟达与魏徐晃共袭刘封，并劝刘封投降，刘封不降，又遭部下叛变，败归成都。刘备在诸葛亮的建议下赐死刘封，刘封自裁，刘备深表痛惜。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字孝直，本为刘璋部下，刘备围成都时劝说刘璋投降，而后又与刘备进取汉中，献计将曹操大将夏侯渊斩首。法正善奇谋，深受刘备信任和敬重。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马腾之女，马超之妹，赵云之妻。父亲令其自幼习武，枪术非凡，寻常男子也是难以匹敌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字元直，与司马徽、诸葛亮等人为友。先化名单福仕官于新野的刘备，后因曹操囚禁其母而不得不弃备投操，临行前向刘备推荐诸葛亮之才。入曹营后，一言不发，不曾为曹操进献过一计半策。后人形容徐庶“身在曹营心在汉”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河东解县（今山西运城）人，美髯公关羽之女。因在关羽的四个子女中排行第三，故又被称作“关三小姐”、“关氏三姐”或“关羽三小姐”。传说她是赵云的弟子、并随同诸葛亮平定南蛮。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庞统，字士元，襄阳（治今湖北襄阳）人。三国时刘备帐下谋士，官拜军师中郎将。才智与诸葛亮齐名，人称“凤雏”。在进围雒县时，统率众攻城，不幸被流矢击中去世，时年三十六岁。追赐统为关内侯，谥曰靖侯。庞统死后，葬于落凤庞统墓坡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字文长，义阳人。三国时期蜀汉名将，诸葛亮死后，魏延因被陷害谋反而遭杨仪一党所杀。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>据传为火神祝融氏后裔，南蛮王孟获之妻。武艺超群，善使飞刀，是《三国演义》中写到的唯一真正上过战场的女性。曾与孟获一起抵抗蜀军，在诸葛亮七擒七纵孟获之后，随孟获投降蜀汉。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜀汉后主，字公嗣。小名阿斗。刘备之子，母亲是昭烈皇后甘氏。三国时期蜀汉第二位皇帝，公元223－263年在位。公元263年蜀汉被曹魏所灭，刘禅投降曹魏，被封为安乐公。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国三国时期南中少数族首领。系东汉末益州建宁郡( 今云南晋宁东 )大姓，身材肥硕。生卒年不详。官至御史中丞。曾被诸葛亮七擒七纵，传为佳话。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名将马超的从弟。早年他曾经从曹操手中死里逃生，后跟随马超大战曹操。后在诸葛亮病逝后受杨仪派遣斩杀了蜀将魏延。曾率领军队出师北伐，被魏将牛金击败而退还。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荆州沔南白水人，沔阳名士黄承彦之女，诸葛亮之妻，诸葛瞻之母。容貌甚丑，而有奇才：上通天文，下察地理，韬略近于诸书无所不晓，诸葛亮在南阳闻其贤而迎娶。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字云长，本字长生，并州河东解州人。五虎上将之首，爵至汉寿亭侯，谥曰“壮缪侯”。被奉为“关圣帝君”，崇为“武圣”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先主姓刘，讳备，字玄德，涿郡涿县人，汉景帝子中山靖王胜之后也。以仁德治天下。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字翼德，涿郡人，燕颔虎须，豹头环眼。有诗云：“长坂坡头杀气生，横枪立马眼圆睁。一声好似轰雷震，独退曹家百万兵”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字子龙，常山真定人。身长八尺，姿颜雄伟。长坂坡单骑救阿斗，先主云：“子龙一身都是胆也。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字汉升，今河南南阳人。汉末三国时期蜀汉名将。本为刘表部下中郎将，后归刘备，并助刘备攻益州刘璋，在定军山一战中阵斩曹操部下名将夏侯渊。备称汉中王后改封后将军，赐关内侯。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字孔明，号卧龙，琅琊阳都人，蜀汉丞相。在世时被封为武乡侯，谥曰忠武侯。著有《出师表》、《诫子书》等。怀不世之才，以空城戏司马，能观星象而通鬼神。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字孟起，扶风茂陵人。面如冠玉，目如流星，虎体猿臂，彪腹狼腰，声雄力猛。因衣着讲究，举止非凡，故人称“锦马超”。麾铁骑，捻金枪。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴国太，小说《三国演义》中的人物，不见于正史记载。在小说中，吴国太被描述为孙坚的次妻，孙坚正妻武烈皇后（小说中写作吴太夫人）的妹妹，孙朗、孙仁（孙尚香）的母亲。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字大荣，吴郡富春人，使用双刀。孙坚在汜水关被华雄击败，祖茂为保护主公而主动提出与孙坚交换头盔，孙坚因此得脱。祖茂将孙坚的赤帻挂在柱子上，准备以此引诱华雄，趁机偷袭，却反被华雄所杀。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字子瑜，吴国大臣，诸葛亮之兄，诸葛恪之父。经鲁肃推荐，为东吴效力。胸怀宽广，温厚诚信，得到孙权的深深信赖，努力缓和蜀汉与东吴的关系。建安二十五年（220年）吕蒙病逝，诸葛瑾代吕蒙领南郡太守，驻守公安。孙权称帝后，诸葛瑾官至大将军，领豫州牧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴国将领。年少时以骁勇为小将，经常奋勇杀敌，屡立功勋，此后又于东兴之战中“雪中奋短兵”，大破侵犯东吴的魏军。吴景帝孙休在位时，丁奉设计除掉了东吴的权臣孙綝，被拜为大将军，后为右大司马、左军师。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字伯符，吴郡富春人。孙坚长子，孙权长兄。东汉末年割据江东一带的军阀，汉末群雄之一，三国时期吴国的奠基者。三国演义中绰号“小霸王”，统一江东。在一次狩猎中为刺客所伤，不久后身亡，年仅二十六岁。其弟孙权接掌孙策势力，并于称帝后，追谥孙策为长沙桓王。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步夫人（？－238），讳练师，临淮淮阴人。东吴丞相步骘同族，吴大帝孙权之妃，在孙权众夫人中最受孙权的宠爱（宠冠后庭），生有二女：孙鲁班、孙鲁育。赤乌元年卒，追封为皇后，葬于蒋陵。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庐江皖县人，为乔公长女，孙策之妻，小乔之姊。与小乔并称为“江东二乔”，容貌国色流离。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴国著名将领，吕蒙白衣渡江取荆州，朱然协助潘璋捉住了关羽。黄武元年，刘备兵伐东吴，朱然与孙桓抵抗刘备大军。后又参加夷陵之战，追击刘备，被前来接应的赵云一枪刺死。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太史慈，字子义，东莱黄县（今山东龙口东黄城集）人。东汉末年武将，守言应诺，恪遵信义，始终如一，弭息诽论。官至建昌都尉。弓马熟练，箭法精良。原为刘繇部下，后被孙策收降，于赤壁之战前病逝，死时才四十一岁。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字子敬，汉族，临淮东城人，中国东汉末年东吴的著名军事统帅。他曾为孙权提出鼎足江东的战略规划，因此得到孙权的赏识，于周瑜死后代替周瑜领兵，守陆口。曾单刀赴会关羽于荆州。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字幼平，九江下蔡人，三国时期吴国武将。早年与蒋钦随孙策左右，立过数次战功。孙策讨伐六县山贼时，周泰胆气绝伦，保卫孙权，勇战退敌，身受十二处伤。有诗云：三番救主出重围，忠勇如公世所稀。遍体疮痍犹痛饮，血痕残酒满征衣。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字德谋，右北平土垠人。历仕孙坚、孙策、孙权三任君主。孙策死后，他与张昭等人共同辅佐孙权，并讨伐江东境内的山贼，功勋卓著。被人们尊称为“程公”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字公瑾，庐江舒县人，任东吴三军大都督，雄姿英发，人称“美周郎”。赤壁之战前，巧用反间计杀了精通水战的叛将蔡瑁、张允。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴大帝，字仲谋，吴郡富春县人。统领吴与蜀魏三足鼎立，制衡天下。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庐江皖县人也。父桥国老德尊于时。小乔国色流离，资貌绝伦。建安三年，周瑜协策攻皖，拔之。娶小乔为妻。后人谓英雄美女，天作之合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本名陆议，字伯言，吴郡吴县人。历任东吴大都督、丞相。吴大帝孙权兄孙策之婿，世代为江东大族。以谦逊之书麻痹关羽，夺取荆州，又有火烧连营大破蜀军。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字兴霸，巴郡临江人，祖籍荆州南阳郡。为人勇猛刚强，忠心耿耿，勇往无前。曾带兵百人于二更奇袭曹营，大挫其锐气。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字子明，汝南富陂人。陈寿评曰：“吕蒙勇而有谋断，识军计，谲郝普，擒关羽，最其妙者。初虽轻果妄杀，终于克己，有国士之量，岂徒武将而已乎！”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙夫人，乃孙权之妹。刘备定荆州，孙权进妹与其结姻，重固盟好。孙夫人才捷刚猛，有诸兄之风。后人为其立庙，号曰“枭姬庙”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字公覆，零陵郡泉陵县人。官至偏将军、武陵太守。以苦肉计骗曹孟德，亲往诈降，火烧战船，重创敌军。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大将军何进的妹妹，汉灵帝刘宏第二任皇后，汉少帝刘辩的生母。何氏出身于屠户家庭，后选入掖庭，得到汉灵帝临幸，生下皇子刘辩，并受封贵人。光和三年（180年），立为皇后。中平六年（189年），汉灵帝去世，刘辩继位，尊何氏为皇太后。董卓进京，废黜刘辩，不久毒杀刘辩及何氏。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉宁太守，继父祖之后传播五斗米教。刘璋杀张鲁之母，二人因此结仇，多次交战。刘备攻益州时，刘璋向张鲁求援。张鲁派马超前往，但马超投降刘备。张鲁后见曹操自封魏王，想要自立为汉宁王，为谋士阎圃劝免。后曹操讨汉中，张鲁败，众人劝其烧粮仓，张鲁认为这是国家之物，未听从，为曹操所称赞。后投降曹操，任镇南将军。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字伯安，幽州牧，汉室宗亲。在幽州两度任职，颇有威望。张纯、张举叛乱，刘虞恩威并施将其平定，又鼓励农商，大大改善了当地经济民生，青徐二州流民纷纷前来避难。后坚拒袁绍等人立其为帝的请求，派兵迎接献帝，却为袁术所扣，并因此事激化了与公孙瓒的矛盾，最终被击败，为其所害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字公路，汝南汝阳人，袁绍之弟。初为虎贲中郎将。董卓进京后以袁术为后将军，袁术因畏祸而出奔南阳。初平元年与袁绍、曹操等同时起兵，共讨董卓。后与袁绍对立，被袁绍、曹操击败，率馀众奔九江，割据扬州。建安二年称帝，建号仲氏。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字公台，东汉末年吕布帐下谋士，东郡东武阳人。性情刚直，足智多谋，年少时与海内知名之士相互结交。192年，陈宫等人主张曹操接任兖州牧。但此后陈宫因曹操杀害边让而与曹操反目，并游说张邈等人背叛曹操迎吕布入兖州，辅助吕布攻打曹操。吕布战败后，随吕布等一同被曹操所擒，决意赴死。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自号太平道人，琅琊人，在吴郡、会稽一带为百姓治病，甚得人心。孙策怒之，以惑人心为由斩之，后策常受吉咒而亡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国东汉末年将领，吕布帐下中郎将。史载高顺为人清白有威严，不好饮酒，所统率的部队精锐非常，号称“陷阵营”。屡进忠言于吕布，吕布虽知其忠而不能用。曹操击破吕布后，高顺被曹操所杀。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字令明，东汉末年雍州南安郡狟道县（今甘肃天水市武山县四门镇）人。曹操部下重要将领。官至立义将军，拜关门亭侯。谥曰壮侯。有一子庞会。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字伯珪，汉族，号“白马义从”。辽西令支人。东汉末年献帝年间占据幽州一带的军阀，汉末群雄之一。出身贵族，因母地位卑贱，只当了郡中小吏。他貌美，声音洪亮，机智善辩。后随卢植于缑氏山中读书，粗通经传。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名琰，原字昭姬，晋时避司马昭讳，改字文姬，东汉末年陈留圉（今河南开封杞县）人，东汉大文学家的女儿，是中国历史上著名的才女和文学家，精于天文数理，既博学能文，又善诗赋，兼长辩才与音律。代表作有《胡笳十八拍》、《悲愤诗》等 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字本初，汉族，汝南汝阳人，出身名门望族，自曾祖父起四代有五人位居三公，自己也居三公之上，其家族也因此有“四世三公”之称。曾于初平元年被推举为反董卓联合军的盟主，联军瓦解后，在汉末群雄割据的过程中，袁绍先占据冀州，又先后夺青、并二州，并于建安四年击败了割据幽州的军阀公孙瓒，势力达到顶点；但在建安五年的官渡之战中败于曹操。在平定冀州叛乱之后，于建安七年病死。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董卓旗下名将，自荐抵抗山东地区反对董卓的诸侯联军于汜水关前，他先后斩杀济北相鲍信之弟鲍忠和孙坚部将祖茂、以及袁术部将俞涉和韩馥手下潘凤等人，最后关东联军派出关羽与之一对一决斗而被杀。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国古代四大美女之一，有闭月羞花之貌。司徒王允之义女，由王允授意施行连环计，离间董卓、吕布，借布手除卓。后貂蝉成为吕布的妾。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左慈，字元放，东汉末方士，汉族，庐江（今安徽庐江西南）人。在道教历史上，东汉时期的丹鼎派道术是从他一脉相传。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字奉先，五原郡九原县人。三国第一猛将，曾独力战刘关张三人，其武力世之无双。时人语曰：“人中有吕布，马中有赤兔。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字文和，武威姑臧人。三国时期魏国著名谋士。曾先后担任三国军阀李傕、张绣、曹操的谋士。官至魏国太尉，谥曰肃侯。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乱世的开始，黄巾起义军首领，太平道创始人。张角早年信奉黄老学说，对在汉代十分流行的谶纬之学也深有研究，对民间医术 、巫术也很熟悉。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字元化，一名旉，沛国谯人，“建安三神医”之一。集平生之所得著《青囊经》，现已失传。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东汉末年河北袁绍部下武将，素有威名。颜良与文丑一起作为袁绍军队的勇将而闻名。建安四年（199），袁绍以颜良、文丑为将，率精卒十万，准备攻许都；次年，兵进黎阳，遣颜良攻白马。终均亡于关羽刀下。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字仲颖，陇西临洮人。东汉末年少帝、献帝时权臣，西凉军阀。官至太师、郿侯。其为人残忍嗜杀，倒行逆施，招致群雄联合讨伐，但联合军在董卓迁都长安不久后瓦解。后被其亲信吕布所杀。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -762,7 +1019,7 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -795,7 +1052,7 @@
         <v>30101</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -804,7 +1061,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -818,7 +1075,7 @@
         <v>30102</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -827,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -841,7 +1098,7 @@
         <v>30103</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -850,7 +1107,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -864,7 +1121,7 @@
         <v>30104</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -873,7 +1130,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -884,10 +1141,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>40101</v>
+        <v>40111</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -896,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -907,10 +1164,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>40102</v>
+        <v>40112</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -919,7 +1176,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -930,10 +1187,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>40103</v>
+        <v>40113</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -942,7 +1199,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F8">
         <v>4</v>
@@ -953,10 +1210,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>40104</v>
+        <v>40114</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -965,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -976,10 +1233,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>40105</v>
+        <v>40115</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -988,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="F10">
         <v>4</v>
@@ -999,10 +1256,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>40106</v>
+        <v>40116</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1011,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="F11">
         <v>4</v>
@@ -1022,10 +1279,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>40107</v>
+        <v>40117</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -1034,7 +1291,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="F12">
         <v>4</v>
@@ -1045,10 +1302,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>40108</v>
+        <v>40118</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -1057,7 +1314,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="F13">
         <v>4</v>
@@ -1071,7 +1328,7 @@
         <v>50101</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1080,7 +1337,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="F14">
         <v>5</v>
@@ -1094,7 +1351,7 @@
         <v>50102</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -1103,7 +1360,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="F15">
         <v>5</v>
@@ -1117,7 +1374,7 @@
         <v>50103</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -1126,7 +1383,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="F16">
         <v>5</v>
@@ -1140,7 +1397,7 @@
         <v>50104</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -1149,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="F17">
         <v>5</v>
@@ -1163,7 +1420,7 @@
         <v>50105</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -1172,7 +1429,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="F18">
         <v>5</v>
@@ -1186,7 +1443,7 @@
         <v>50106</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -1195,7 +1452,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="F19">
         <v>5</v>
@@ -1209,7 +1466,7 @@
         <v>50107</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -1218,7 +1475,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="F20">
         <v>5</v>
@@ -1232,7 +1489,7 @@
         <v>50108</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -1241,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="F21">
         <v>5</v>
@@ -1255,7 +1512,7 @@
         <v>30201</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -1264,7 +1521,7 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="F22">
         <v>3</v>
@@ -1278,7 +1535,7 @@
         <v>30202</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -1287,7 +1544,7 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="F23">
         <v>3</v>
@@ -1301,7 +1558,7 @@
         <v>30203</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -1310,7 +1567,7 @@
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="F24">
         <v>3</v>
@@ -1324,7 +1581,7 @@
         <v>30204</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -1333,7 +1590,7 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F25">
         <v>3</v>
@@ -1344,10 +1601,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>40201</v>
+        <v>40211</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1356,7 +1613,7 @@
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="F26">
         <v>4</v>
@@ -1367,10 +1624,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>40202</v>
+        <v>40212</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -1379,7 +1636,7 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="F27">
         <v>4</v>
@@ -1390,10 +1647,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>40203</v>
+        <v>40213</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -1402,7 +1659,7 @@
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="F28">
         <v>4</v>
@@ -1413,10 +1670,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>40204</v>
+        <v>40214</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -1425,7 +1682,7 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="F29">
         <v>4</v>
@@ -1436,10 +1693,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>40205</v>
+        <v>40215</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -1448,7 +1705,7 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="F30">
         <v>4</v>
@@ -1459,10 +1716,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31">
-        <v>40206</v>
+        <v>40216</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -1471,7 +1728,7 @@
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="F31">
         <v>4</v>
@@ -1482,10 +1739,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32">
-        <v>40207</v>
+        <v>40217</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -1494,7 +1751,7 @@
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="F32">
         <v>4</v>
@@ -1505,10 +1762,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>40208</v>
+        <v>40218</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -1517,7 +1774,7 @@
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="F33">
         <v>4</v>
@@ -1531,7 +1788,7 @@
         <v>50201</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -1540,7 +1797,7 @@
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="F34">
         <v>5</v>
@@ -1554,7 +1811,7 @@
         <v>50202</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -1563,7 +1820,7 @@
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="F35">
         <v>5</v>
@@ -1577,7 +1834,7 @@
         <v>50203</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -1586,7 +1843,7 @@
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="F36">
         <v>5</v>
@@ -1600,7 +1857,7 @@
         <v>50204</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -1609,7 +1866,7 @@
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="F37">
         <v>5</v>
@@ -1623,7 +1880,7 @@
         <v>50205</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -1632,7 +1889,7 @@
         <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="F38">
         <v>5</v>
@@ -1646,7 +1903,7 @@
         <v>50206</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -1655,7 +1912,7 @@
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="F39">
         <v>5</v>
@@ -1669,7 +1926,7 @@
         <v>50207</v>
       </c>
       <c r="B40" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -1678,7 +1935,7 @@
         <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="F40">
         <v>5</v>
@@ -1692,7 +1949,7 @@
         <v>50208</v>
       </c>
       <c r="B41" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -1701,7 +1958,7 @@
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="F41">
         <v>5</v>
@@ -1715,7 +1972,7 @@
         <v>30301</v>
       </c>
       <c r="B42" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -1724,7 +1981,7 @@
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="F42">
         <v>3</v>
@@ -1738,7 +1995,7 @@
         <v>30302</v>
       </c>
       <c r="B43" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -1747,7 +2004,7 @@
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="F43">
         <v>3</v>
@@ -1761,7 +2018,7 @@
         <v>30303</v>
       </c>
       <c r="B44" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -1770,7 +2027,7 @@
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="F44">
         <v>3</v>
@@ -1784,7 +2041,7 @@
         <v>30304</v>
       </c>
       <c r="B45" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -1793,7 +2050,7 @@
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="F45">
         <v>3</v>
@@ -1804,10 +2061,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46">
-        <v>40301</v>
+        <v>40311</v>
       </c>
       <c r="B46" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C46">
         <v>45</v>
@@ -1816,7 +2073,7 @@
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="F46">
         <v>4</v>
@@ -1827,10 +2084,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47">
-        <v>40302</v>
+        <v>40312</v>
       </c>
       <c r="B47" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -1839,7 +2096,7 @@
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="F47">
         <v>4</v>
@@ -1850,10 +2107,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48">
-        <v>40303</v>
+        <v>40313</v>
       </c>
       <c r="B48" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -1862,7 +2119,7 @@
         <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="F48">
         <v>4</v>
@@ -1873,10 +2130,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49">
-        <v>40304</v>
+        <v>40314</v>
       </c>
       <c r="B49" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -1885,7 +2142,7 @@
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="F49">
         <v>4</v>
@@ -1896,10 +2153,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50">
-        <v>40305</v>
+        <v>40315</v>
       </c>
       <c r="B50" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -1908,7 +2165,7 @@
         <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="F50">
         <v>4</v>
@@ -1919,10 +2176,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51">
-        <v>40306</v>
+        <v>40316</v>
       </c>
       <c r="B51" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -1931,7 +2188,7 @@
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="F51">
         <v>4</v>
@@ -1942,10 +2199,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52">
-        <v>40307</v>
+        <v>40317</v>
       </c>
       <c r="B52" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C52">
         <v>51</v>
@@ -1954,7 +2211,7 @@
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="F52">
         <v>4</v>
@@ -1965,10 +2222,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53">
-        <v>40308</v>
+        <v>40318</v>
       </c>
       <c r="B53" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C53">
         <v>52</v>
@@ -1977,7 +2234,7 @@
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="F53">
         <v>4</v>
@@ -1991,7 +2248,7 @@
         <v>50301</v>
       </c>
       <c r="B54" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C54">
         <v>53</v>
@@ -2000,7 +2257,7 @@
         <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="F54">
         <v>5</v>
@@ -2014,7 +2271,7 @@
         <v>50302</v>
       </c>
       <c r="B55" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C55">
         <v>54</v>
@@ -2023,7 +2280,7 @@
         <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="F55">
         <v>5</v>
@@ -2037,7 +2294,7 @@
         <v>50303</v>
       </c>
       <c r="B56" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -2046,7 +2303,7 @@
         <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="F56">
         <v>5</v>
@@ -2060,7 +2317,7 @@
         <v>50304</v>
       </c>
       <c r="B57" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C57">
         <v>56</v>
@@ -2069,7 +2326,7 @@
         <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="F57">
         <v>5</v>
@@ -2083,7 +2340,7 @@
         <v>50305</v>
       </c>
       <c r="B58" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C58">
         <v>57</v>
@@ -2092,7 +2349,7 @@
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="F58">
         <v>5</v>
@@ -2106,7 +2363,7 @@
         <v>50306</v>
       </c>
       <c r="B59" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C59">
         <v>58</v>
@@ -2115,7 +2372,7 @@
         <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="F59">
         <v>5</v>
@@ -2129,7 +2386,7 @@
         <v>50307</v>
       </c>
       <c r="B60" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C60">
         <v>59</v>
@@ -2138,7 +2395,7 @@
         <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="F60">
         <v>5</v>
@@ -2152,7 +2409,7 @@
         <v>50308</v>
       </c>
       <c r="B61" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -2161,7 +2418,7 @@
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="F61">
         <v>5</v>
@@ -2175,7 +2432,7 @@
         <v>30401</v>
       </c>
       <c r="B62" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -2184,7 +2441,7 @@
         <v>4</v>
       </c>
       <c r="E62" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="F62">
         <v>3</v>
@@ -2198,7 +2455,7 @@
         <v>30402</v>
       </c>
       <c r="B63" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -2207,7 +2464,7 @@
         <v>4</v>
       </c>
       <c r="E63" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="F63">
         <v>3</v>
@@ -2221,7 +2478,7 @@
         <v>30403</v>
       </c>
       <c r="B64" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -2230,7 +2487,7 @@
         <v>4</v>
       </c>
       <c r="E64" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="F64">
         <v>3</v>
@@ -2244,7 +2501,7 @@
         <v>30404</v>
       </c>
       <c r="B65" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -2253,7 +2510,7 @@
         <v>4</v>
       </c>
       <c r="E65" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="F65">
         <v>3</v>
@@ -2264,10 +2521,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66">
-        <v>40401</v>
+        <v>40411</v>
       </c>
       <c r="B66" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C66">
         <v>65</v>
@@ -2276,7 +2533,7 @@
         <v>4</v>
       </c>
       <c r="E66" t="s">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="F66">
         <v>4</v>
@@ -2287,10 +2544,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67">
-        <v>40402</v>
+        <v>40412</v>
       </c>
       <c r="B67" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C67">
         <v>66</v>
@@ -2299,7 +2556,7 @@
         <v>4</v>
       </c>
       <c r="E67" t="s">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="F67">
         <v>4</v>
@@ -2310,10 +2567,10 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68">
-        <v>40403</v>
+        <v>40413</v>
       </c>
       <c r="B68" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="C68">
         <v>67</v>
@@ -2322,7 +2579,7 @@
         <v>4</v>
       </c>
       <c r="E68" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="F68">
         <v>4</v>
@@ -2333,10 +2590,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69">
-        <v>40404</v>
+        <v>40414</v>
       </c>
       <c r="B69" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -2345,7 +2602,7 @@
         <v>4</v>
       </c>
       <c r="E69" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="F69">
         <v>4</v>
@@ -2356,10 +2613,10 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70">
-        <v>40405</v>
+        <v>40415</v>
       </c>
       <c r="B70" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C70">
         <v>69</v>
@@ -2368,7 +2625,7 @@
         <v>4</v>
       </c>
       <c r="E70" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="F70">
         <v>4</v>
@@ -2379,10 +2636,10 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71">
-        <v>40406</v>
+        <v>40416</v>
       </c>
       <c r="B71" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C71">
         <v>70</v>
@@ -2391,7 +2648,7 @@
         <v>4</v>
       </c>
       <c r="E71" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="F71">
         <v>4</v>
@@ -2402,10 +2659,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72">
-        <v>40407</v>
+        <v>40417</v>
       </c>
       <c r="B72" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C72">
         <v>71</v>
@@ -2414,7 +2671,7 @@
         <v>4</v>
       </c>
       <c r="E72" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="F72">
         <v>4</v>
@@ -2425,10 +2682,10 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73">
-        <v>40408</v>
+        <v>40418</v>
       </c>
       <c r="B73" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -2437,7 +2694,7 @@
         <v>4</v>
       </c>
       <c r="E73" t="s">
-        <v>97</v>
+        <v>158</v>
       </c>
       <c r="F73">
         <v>4</v>
@@ -2451,7 +2708,7 @@
         <v>50401</v>
       </c>
       <c r="B74" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="C74">
         <v>73</v>
@@ -2460,7 +2717,7 @@
         <v>4</v>
       </c>
       <c r="E74" t="s">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="F74">
         <v>5</v>
@@ -2474,7 +2731,7 @@
         <v>50402</v>
       </c>
       <c r="B75" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="C75">
         <v>74</v>
@@ -2483,7 +2740,7 @@
         <v>4</v>
       </c>
       <c r="E75" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="F75">
         <v>5</v>
@@ -2497,7 +2754,7 @@
         <v>50403</v>
       </c>
       <c r="B76" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C76">
         <v>75</v>
@@ -2506,7 +2763,7 @@
         <v>4</v>
       </c>
       <c r="E76" t="s">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="F76">
         <v>5</v>
@@ -2520,7 +2777,7 @@
         <v>50404</v>
       </c>
       <c r="B77" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C77">
         <v>76</v>
@@ -2529,7 +2786,7 @@
         <v>4</v>
       </c>
       <c r="E77" t="s">
-        <v>101</v>
+        <v>162</v>
       </c>
       <c r="F77">
         <v>5</v>
@@ -2543,7 +2800,7 @@
         <v>50405</v>
       </c>
       <c r="B78" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C78">
         <v>77</v>
@@ -2552,7 +2809,7 @@
         <v>4</v>
       </c>
       <c r="E78" t="s">
-        <v>102</v>
+        <v>163</v>
       </c>
       <c r="F78">
         <v>5</v>
@@ -2566,7 +2823,7 @@
         <v>50406</v>
       </c>
       <c r="B79" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="C79">
         <v>78</v>
@@ -2575,7 +2832,7 @@
         <v>4</v>
       </c>
       <c r="E79" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="F79">
         <v>5</v>
@@ -2589,7 +2846,7 @@
         <v>50407</v>
       </c>
       <c r="B80" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C80">
         <v>79</v>
@@ -2598,7 +2855,7 @@
         <v>4</v>
       </c>
       <c r="E80" t="s">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="F80">
         <v>5</v>
@@ -2612,7 +2869,7 @@
         <v>50408</v>
       </c>
       <c r="B81" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C81">
         <v>80</v>
@@ -2621,7 +2878,7 @@
         <v>4</v>
       </c>
       <c r="E81" t="s">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="F81">
         <v>5</v>
@@ -2633,5 +2890,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>